--- a/out/results_2024-04-16.xlsx
+++ b/out/results_2024-04-16.xlsx
@@ -2,15 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="228" yWindow="588" windowWidth="14076" windowHeight="7884" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Results" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -50,7 +49,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +412,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="n">
@@ -427,7 +426,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>5-3-7</t>
+          <t>3-2-2</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -446,19 +445,19 @@
         </is>
       </c>
       <c r="F1" t="n">
-        <v>3129</v>
+        <v>72</v>
       </c>
       <c r="G1" t="n">
-        <v>35</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5-3-7</t>
+          <t>5-3-2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,23 +472,23 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>3129</v>
+        <v>240</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>5-3-7</t>
+          <t>4-3-3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -508,19 +507,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>3129</v>
+        <v>432</v>
       </c>
       <c r="G3" t="n">
-        <v>35</v>
+        <v>4455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>7-4-2</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -535,23 +534,23 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>72</v>
+        <v>560</v>
       </c>
       <c r="G4" t="n">
-        <v>6</v>
+        <v>4444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>9-5-2</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -566,19 +565,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>72</v>
+        <v>1080</v>
       </c>
       <c r="G5" t="n">
-        <v>284</v>
+        <v>15065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -592,7 +591,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.047</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -601,19 +600,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2144</v>
+        <v>1600</v>
       </c>
       <c r="G6" t="n">
-        <v>33324</v>
+        <v>120664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>5-3-7</t>
+          <t>11-6-2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -623,28 +622,28 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>90.922</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3129</v>
+        <v>1848</v>
       </c>
       <c r="G7" t="n">
-        <v>137459</v>
+        <v>51138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>7-6-3</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -654,7 +653,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.808</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -663,19 +662,19 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>72</v>
+        <v>2646</v>
       </c>
       <c r="G8" t="n">
-        <v>248</v>
+        <v>880821</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>13-7-2</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -694,19 +693,19 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>72</v>
+        <v>2912</v>
       </c>
       <c r="G9" t="n">
-        <v>30</v>
+        <v>187355</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>6-5-5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -716,28 +715,28 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>3.641</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>72</v>
+        <v>4500</v>
       </c>
       <c r="G10" t="n">
-        <v>30</v>
+        <v>5815475</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>7-7-3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -747,28 +746,28 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>15.360</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>72</v>
+        <v>3528</v>
       </c>
       <c r="G11" t="n">
-        <v>212</v>
+        <v>5457438</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>5-8-3</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -778,19 +777,19 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>121.648</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>sat</t>
+          <t>unsat</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>72</v>
+        <v>3240</v>
       </c>
       <c r="G12" t="n">
-        <v>140</v>
+        <v>24833400</v>
       </c>
     </row>
     <row r="13">
@@ -799,7 +798,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>15-8-2</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -809,7 +808,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.007</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -818,10 +817,10 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>72</v>
+        <v>4320</v>
       </c>
       <c r="G13" t="n">
-        <v>30</v>
+        <v>740984</v>
       </c>
     </row>
     <row r="14">
@@ -830,7 +829,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>5-3-7</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -849,10 +848,10 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>72</v>
+        <v>2940</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>329259</v>
       </c>
     </row>
     <row r="15">
@@ -861,7 +860,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>5-3-7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -880,10 +879,10 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>72</v>
+        <v>2940</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>322035</v>
       </c>
     </row>
     <row r="16">
@@ -892,7 +891,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>5-3-7</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -902,7 +901,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -911,10 +910,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>72</v>
+        <v>2940</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>155904</v>
       </c>
     </row>
     <row r="17">
@@ -923,7 +922,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>5-3-7</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -933,7 +932,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.031</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -942,10 +941,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>72</v>
+        <v>2940</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>173544</v>
       </c>
     </row>
     <row r="18">
@@ -969,23 +968,23 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>unsat</t>
+          <t>sat</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>72</v>
       </c>
       <c r="G18" t="n">
-        <v>30</v>
+        <v>410</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -995,7 +994,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1004,10 +1003,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>72</v>
+        <v>1600</v>
       </c>
       <c r="G19" t="n">
-        <v>6</v>
+        <v>36902</v>
       </c>
     </row>
     <row r="20">
@@ -1038,16 +1037,16 @@
         <v>72</v>
       </c>
       <c r="G20" t="n">
-        <v>6</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1057,7 +1056,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.062</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1066,10 +1065,10 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>72</v>
+        <v>1600</v>
       </c>
       <c r="G21" t="n">
-        <v>24</v>
+        <v>36902</v>
       </c>
     </row>
     <row r="22">
@@ -1100,16 +1099,16 @@
         <v>72</v>
       </c>
       <c r="G22" t="n">
-        <v>164</v>
+        <v>410</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3-2-2</t>
+          <t>5-4-4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1119,7 +1118,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.047</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1128,10 +1127,10 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>72</v>
+        <v>1600</v>
       </c>
       <c r="G23" t="n">
-        <v>182</v>
+        <v>36902</v>
       </c>
     </row>
     <row r="24">
@@ -1140,7 +1139,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>5-4-4</t>
+          <t>3-2-2</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1150,7 +1149,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.016</t>
+          <t>0.000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1159,41 +1158,196 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>1600</v>
+        <v>72</v>
       </c>
       <c r="G24" t="n">
-        <v>120664</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
+        <v>2</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G25" t="n">
+        <v>118320</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
         <v>1</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F26" t="n">
+        <v>72</v>
+      </c>
+      <c r="G26" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G27" t="n">
+        <v>118320</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>1</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3-2-2</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>72</v>
+      </c>
+      <c r="G28" t="n">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5-4-4</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>1600</v>
+      </c>
+      <c r="G29" t="n">
+        <v>118320</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>3</v>
+      </c>
+      <c r="B30" t="inlineStr">
         <is>
           <t>5-3-7</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>binomial</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.000</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>sat</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>binomial</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.016</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>sat</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
         <v>2940</v>
       </c>
-      <c r="G25" t="n">
-        <v>329259</v>
+      <c r="G30" t="n">
+        <v>322035</v>
       </c>
     </row>
   </sheetData>
